--- a/Calendar2018-19.xlsx
+++ b/Calendar2018-19.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="21">
   <si>
     <t>DECEMBER-2018</t>
   </si>
@@ -89,12 +92,21 @@
 LG (P, X)  :   1
 TK (DATFM, SPR) : 1</t>
   </si>
+  <si>
+    <t>APRIL-2019</t>
+  </si>
+  <si>
+    <t>MAY-2019</t>
+  </si>
+  <si>
+    <t>JUN-2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +147,13 @@
     <font>
       <sz val="48"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,12 +204,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCC00CC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -215,7 +228,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,14 +250,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -711,11 +730,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -793,22 +862,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
@@ -819,22 +888,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,15 +912,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -861,11 +924,77 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -876,49 +1005,13 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,32 +1041,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,12 +1091,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF003399"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFCC00CC"/>
       <color rgb="FF660066"/>
       <color rgb="FF663300"/>
-      <color rgb="FF003399"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1303,44 +1411,44 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="20"/>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="81"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -1593,10 +1701,10 @@
       <c r="D9" s="9">
         <v>31</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="20"/>
       <c r="J9" s="14">
         <v>26</v>
@@ -1639,41 +1747,41 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="J11" s="59" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
+      <c r="J11" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="61"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="84"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="64"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="69"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -1972,15 +2080,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1991,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="38" zoomScaleNormal="38" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:P20"/>
+    <sheetView zoomScale="38" zoomScaleNormal="38" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,61 +2140,61 @@
     </row>
     <row r="2" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="20"/>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="81"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="84"/>
     </row>
     <row r="3" spans="1:24" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="64"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="69"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -2185,16 +2293,16 @@
       <c r="J5" s="33"/>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="53">
+      <c r="M5" s="57">
         <v>1</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="57">
         <v>2</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="57">
         <v>3</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="58">
         <v>4</v>
       </c>
       <c r="Q5" s="3"/>
@@ -2206,7 +2314,7 @@
       <c r="U5" s="34"/>
       <c r="V5" s="34"/>
       <c r="W5" s="34"/>
-      <c r="X5" s="8">
+      <c r="X5" s="51">
         <v>1</v>
       </c>
     </row>
@@ -2220,41 +2328,41 @@
       <c r="C6" s="13">
         <v>9</v>
       </c>
-      <c r="D6" s="34">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="57">
+        <v>10</v>
+      </c>
+      <c r="E6" s="57">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="57">
         <v>12</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="57">
         <v>13</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="58">
         <v>14</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="12">
+      <c r="J6" s="62">
         <v>5</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="57">
         <v>6</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="57">
         <v>7</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="57">
         <v>8</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="57">
         <v>9</v>
       </c>
-      <c r="O6" s="7">
-        <v>10</v>
-      </c>
-      <c r="P6" s="89">
+      <c r="O6" s="57">
+        <v>10</v>
+      </c>
+      <c r="P6" s="58">
         <v>11</v>
       </c>
       <c r="Q6" s="3"/>
@@ -2264,19 +2372,19 @@
       <c r="S6" s="13">
         <v>3</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="16">
         <v>4</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="16">
         <v>5</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="16">
         <v>6</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="16">
         <v>7</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="51">
         <v>8</v>
       </c>
     </row>
@@ -2290,41 +2398,41 @@
       <c r="C7" s="13">
         <v>16</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="57">
         <v>17</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="57">
         <v>18</v>
       </c>
-      <c r="F7" s="86">
+      <c r="F7" s="57">
         <v>19</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="57">
         <v>20</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="58">
         <v>21</v>
       </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="90">
+      <c r="J7" s="62">
         <v>12</v>
       </c>
-      <c r="K7" s="91">
+      <c r="K7" s="57">
         <v>13</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="57">
         <v>14</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="57">
         <v>15</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="57">
         <v>16</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="57">
         <v>17</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="58">
         <v>18</v>
       </c>
       <c r="Q7" s="3"/>
@@ -2334,19 +2442,19 @@
       <c r="S7" s="13">
         <v>10</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="16">
         <v>11</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="16">
         <v>12</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="16">
         <v>13</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="16">
         <v>14</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="51">
         <v>15</v>
       </c>
     </row>
@@ -2360,19 +2468,19 @@
       <c r="C8" s="13">
         <v>23</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="57">
         <v>24</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="57">
         <v>25</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="57">
         <v>26</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="57">
         <v>27</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="58">
         <v>28</v>
       </c>
       <c r="I8" s="20"/>
@@ -2382,19 +2490,19 @@
       <c r="K8" s="13">
         <v>20</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="16">
         <v>21</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="16">
         <v>22</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="16">
         <v>23</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="16">
         <v>24</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="51">
         <v>25</v>
       </c>
       <c r="Q8" s="3"/>
@@ -2404,19 +2512,19 @@
       <c r="S8" s="13">
         <v>17</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="16">
         <v>18</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="16">
         <v>19</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="16">
         <v>20</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="16">
         <v>21</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="51">
         <v>22</v>
       </c>
     </row>
@@ -2430,19 +2538,19 @@
       <c r="C9" s="13">
         <v>30</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="57">
         <v>31</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="59">
         <v>1</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="60">
         <v>2</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="60">
         <v>3</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="61">
         <v>4</v>
       </c>
       <c r="I9" s="20"/>
@@ -2452,19 +2560,19 @@
       <c r="K9" s="13">
         <v>27</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="16">
         <v>28</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="16">
         <v>29</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="16">
         <v>30</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="16">
         <v>31</v>
       </c>
-      <c r="P9" s="8"/>
+      <c r="P9" s="51"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="22">
         <v>23</v>
@@ -2472,16 +2580,16 @@
       <c r="S9" s="13">
         <v>24</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="16">
         <v>25</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="16">
         <v>26</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="16">
         <v>27</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="16">
         <v>28</v>
       </c>
       <c r="X9" s="8"/>
@@ -2539,25 +2647,25 @@
     </row>
     <row r="12" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="Q12" s="3"/>
-      <c r="R12" s="65" t="s">
+      <c r="R12" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="67"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="72"/>
     </row>
     <row r="13" spans="1:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q13" s="3"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="64"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="69"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q14" s="3"/>
@@ -2587,23 +2695,23 @@
       <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="79"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="35" t="s">
         <v>10</v>
@@ -2621,21 +2729,21 @@
       <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="82"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="22">
         <v>2</v>
@@ -2663,21 +2771,21 @@
       <c r="A17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="82"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="22">
         <v>9</v>
@@ -2697,7 +2805,7 @@
       <c r="W17" s="34">
         <v>14</v>
       </c>
-      <c r="X17" s="92">
+      <c r="X17" s="52">
         <v>15</v>
       </c>
     </row>
@@ -2705,41 +2813,41 @@
       <c r="A18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="82"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="90"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="22">
+      <c r="R18" s="49">
         <v>16</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="11">
         <v>17</v>
       </c>
-      <c r="T18" s="34">
+      <c r="T18" s="11">
         <v>18</v>
       </c>
-      <c r="U18" s="34">
+      <c r="U18" s="11">
         <v>19</v>
       </c>
-      <c r="V18" s="34">
+      <c r="V18" s="11">
         <v>20</v>
       </c>
-      <c r="W18" s="34">
+      <c r="W18" s="11">
         <v>21</v>
       </c>
-      <c r="X18" s="92">
+      <c r="X18" s="52">
         <v>22</v>
       </c>
     </row>
@@ -2747,21 +2855,21 @@
       <c r="A19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="82"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="90"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="49">
         <v>23</v>
@@ -2781,7 +2889,7 @@
       <c r="W19" s="11">
         <v>28</v>
       </c>
-      <c r="X19" s="54">
+      <c r="X19" s="52">
         <v>29</v>
       </c>
     </row>
@@ -2789,41 +2897,41 @@
       <c r="A20" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="85"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="55">
+      <c r="R20" s="53">
         <v>30</v>
       </c>
-      <c r="S20" s="56">
+      <c r="S20" s="54">
         <v>31</v>
       </c>
-      <c r="T20" s="93">
+      <c r="T20" s="55">
         <v>1</v>
       </c>
-      <c r="U20" s="93">
+      <c r="U20" s="55">
         <v>2</v>
       </c>
-      <c r="V20" s="93">
+      <c r="V20" s="55">
         <v>3</v>
       </c>
-      <c r="W20" s="93">
+      <c r="W20" s="55">
         <v>4</v>
       </c>
-      <c r="X20" s="94">
+      <c r="X20" s="56">
         <v>5</v>
       </c>
     </row>
@@ -2849,4 +2957,2216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView zoomScale="38" zoomScaleNormal="38" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="11" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="19" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="72"/>
+    </row>
+    <row r="3" spans="1:24" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="69"/>
+    </row>
+    <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="57">
+        <v>1</v>
+      </c>
+      <c r="F5" s="57">
+        <v>2</v>
+      </c>
+      <c r="G5" s="57">
+        <v>3</v>
+      </c>
+      <c r="H5" s="58">
+        <v>4</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="62">
+        <v>5</v>
+      </c>
+      <c r="C6" s="57">
+        <v>6</v>
+      </c>
+      <c r="D6" s="57">
+        <v>7</v>
+      </c>
+      <c r="E6" s="57">
+        <v>8</v>
+      </c>
+      <c r="F6" s="57">
+        <v>9</v>
+      </c>
+      <c r="G6" s="57">
+        <v>10</v>
+      </c>
+      <c r="H6" s="58">
+        <v>11</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22">
+        <v>2</v>
+      </c>
+      <c r="K6" s="13">
+        <v>3</v>
+      </c>
+      <c r="L6" s="16">
+        <v>4</v>
+      </c>
+      <c r="M6" s="16">
+        <v>5</v>
+      </c>
+      <c r="N6" s="16">
+        <v>6</v>
+      </c>
+      <c r="O6" s="16">
+        <v>7</v>
+      </c>
+      <c r="P6" s="51">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="22">
+        <v>2</v>
+      </c>
+      <c r="S6" s="13">
+        <v>3</v>
+      </c>
+      <c r="T6" s="7">
+        <v>4</v>
+      </c>
+      <c r="U6" s="7">
+        <v>5</v>
+      </c>
+      <c r="V6" s="7">
+        <v>6</v>
+      </c>
+      <c r="W6" s="7">
+        <v>7</v>
+      </c>
+      <c r="X6" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="62">
+        <v>12</v>
+      </c>
+      <c r="C7" s="57">
+        <v>13</v>
+      </c>
+      <c r="D7" s="57">
+        <v>14</v>
+      </c>
+      <c r="E7" s="57">
+        <v>15</v>
+      </c>
+      <c r="F7" s="57">
+        <v>16</v>
+      </c>
+      <c r="G7" s="57">
+        <v>17</v>
+      </c>
+      <c r="H7" s="58">
+        <v>18</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="50">
+        <v>9</v>
+      </c>
+      <c r="K7" s="13">
+        <v>10</v>
+      </c>
+      <c r="L7" s="16">
+        <v>11</v>
+      </c>
+      <c r="M7" s="16">
+        <v>12</v>
+      </c>
+      <c r="N7" s="16">
+        <v>13</v>
+      </c>
+      <c r="O7" s="16">
+        <v>14</v>
+      </c>
+      <c r="P7" s="51">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="22">
+        <v>9</v>
+      </c>
+      <c r="S7" s="13">
+        <v>10</v>
+      </c>
+      <c r="T7" s="34">
+        <v>11</v>
+      </c>
+      <c r="U7" s="34">
+        <v>12</v>
+      </c>
+      <c r="V7" s="34">
+        <v>13</v>
+      </c>
+      <c r="W7" s="34">
+        <v>14</v>
+      </c>
+      <c r="X7" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12">
+        <v>19</v>
+      </c>
+      <c r="C8" s="13">
+        <v>20</v>
+      </c>
+      <c r="D8" s="16">
+        <v>21</v>
+      </c>
+      <c r="E8" s="16">
+        <v>22</v>
+      </c>
+      <c r="F8" s="16">
+        <v>23</v>
+      </c>
+      <c r="G8" s="16">
+        <v>24</v>
+      </c>
+      <c r="H8" s="51">
+        <v>25</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="22">
+        <v>16</v>
+      </c>
+      <c r="K8" s="13">
+        <v>17</v>
+      </c>
+      <c r="L8" s="16">
+        <v>18</v>
+      </c>
+      <c r="M8" s="16">
+        <v>19</v>
+      </c>
+      <c r="N8" s="16">
+        <v>20</v>
+      </c>
+      <c r="O8" s="16">
+        <v>21</v>
+      </c>
+      <c r="P8" s="51">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="49">
+        <v>16</v>
+      </c>
+      <c r="S8" s="11">
+        <v>17</v>
+      </c>
+      <c r="T8" s="11">
+        <v>18</v>
+      </c>
+      <c r="U8" s="11">
+        <v>19</v>
+      </c>
+      <c r="V8" s="11">
+        <v>20</v>
+      </c>
+      <c r="W8" s="11">
+        <v>21</v>
+      </c>
+      <c r="X8" s="52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13">
+        <v>27</v>
+      </c>
+      <c r="D9" s="16">
+        <v>28</v>
+      </c>
+      <c r="E9" s="16">
+        <v>29</v>
+      </c>
+      <c r="F9" s="16">
+        <v>30</v>
+      </c>
+      <c r="G9" s="16">
+        <v>31</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22">
+        <v>23</v>
+      </c>
+      <c r="K9" s="13">
+        <v>24</v>
+      </c>
+      <c r="L9" s="16">
+        <v>25</v>
+      </c>
+      <c r="M9" s="16">
+        <v>26</v>
+      </c>
+      <c r="N9" s="16">
+        <v>27</v>
+      </c>
+      <c r="O9" s="16">
+        <v>28</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="49">
+        <v>23</v>
+      </c>
+      <c r="S9" s="11">
+        <v>24</v>
+      </c>
+      <c r="T9" s="11">
+        <v>25</v>
+      </c>
+      <c r="U9" s="11">
+        <v>26</v>
+      </c>
+      <c r="V9" s="11">
+        <v>27</v>
+      </c>
+      <c r="W9" s="11">
+        <v>28</v>
+      </c>
+      <c r="X9" s="52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="72.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="R10" s="53">
+        <v>30</v>
+      </c>
+      <c r="S10" s="54">
+        <v>31</v>
+      </c>
+      <c r="T10" s="55">
+        <v>1</v>
+      </c>
+      <c r="U10" s="55">
+        <v>2</v>
+      </c>
+      <c r="V10" s="55">
+        <v>3</v>
+      </c>
+      <c r="W10" s="55">
+        <v>4</v>
+      </c>
+      <c r="X10" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="24"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="45"/>
+    </row>
+    <row r="12" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="75"/>
+    </row>
+    <row r="13" spans="1:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="69"/>
+    </row>
+    <row r="14" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="35">
+        <v>6</v>
+      </c>
+      <c r="S15" s="34">
+        <v>7</v>
+      </c>
+      <c r="T15" s="34">
+        <v>8</v>
+      </c>
+      <c r="U15" s="34">
+        <v>9</v>
+      </c>
+      <c r="V15" s="34">
+        <v>10</v>
+      </c>
+      <c r="W15" s="34">
+        <v>11</v>
+      </c>
+      <c r="X15" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="22">
+        <v>13</v>
+      </c>
+      <c r="S16" s="13">
+        <v>14</v>
+      </c>
+      <c r="T16" s="7">
+        <v>15</v>
+      </c>
+      <c r="U16" s="7">
+        <v>16</v>
+      </c>
+      <c r="V16" s="7">
+        <v>17</v>
+      </c>
+      <c r="W16" s="7">
+        <v>18</v>
+      </c>
+      <c r="X16" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="22">
+        <v>20</v>
+      </c>
+      <c r="S17" s="13">
+        <v>21</v>
+      </c>
+      <c r="T17" s="34">
+        <v>22</v>
+      </c>
+      <c r="U17" s="34">
+        <v>23</v>
+      </c>
+      <c r="V17" s="34">
+        <v>24</v>
+      </c>
+      <c r="W17" s="34">
+        <v>25</v>
+      </c>
+      <c r="X17" s="63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="22">
+        <v>27</v>
+      </c>
+      <c r="S18" s="13">
+        <v>28</v>
+      </c>
+      <c r="T18" s="34">
+        <v>29</v>
+      </c>
+      <c r="U18" s="34">
+        <v>30</v>
+      </c>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="63"/>
+    </row>
+    <row r="19" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="63"/>
+    </row>
+    <row r="20" spans="1:24" ht="72.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="65"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="R12:X12"/>
+    <mergeCell ref="R13:X13"/>
+    <mergeCell ref="B15:P20"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="R3:X3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="11" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="19" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="96"/>
+    </row>
+    <row r="3" spans="1:24" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="99"/>
+    </row>
+    <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="58">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="35">
+        <v>6</v>
+      </c>
+      <c r="S5" s="34">
+        <v>7</v>
+      </c>
+      <c r="T5" s="34">
+        <v>8</v>
+      </c>
+      <c r="U5" s="34">
+        <v>9</v>
+      </c>
+      <c r="V5" s="34">
+        <v>10</v>
+      </c>
+      <c r="W5" s="34">
+        <v>11</v>
+      </c>
+      <c r="X5" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="66">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57">
+        <v>3</v>
+      </c>
+      <c r="D6" s="57">
+        <v>4</v>
+      </c>
+      <c r="E6" s="57">
+        <v>5</v>
+      </c>
+      <c r="F6" s="57">
+        <v>6</v>
+      </c>
+      <c r="G6" s="57">
+        <v>7</v>
+      </c>
+      <c r="H6" s="58">
+        <v>8</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="22">
+        <v>2</v>
+      </c>
+      <c r="K6" s="13">
+        <v>3</v>
+      </c>
+      <c r="L6" s="16">
+        <v>4</v>
+      </c>
+      <c r="M6" s="16">
+        <v>5</v>
+      </c>
+      <c r="N6" s="16">
+        <v>6</v>
+      </c>
+      <c r="O6" s="16">
+        <v>7</v>
+      </c>
+      <c r="P6" s="51">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="22">
+        <v>13</v>
+      </c>
+      <c r="S6" s="13">
+        <v>14</v>
+      </c>
+      <c r="T6" s="7">
+        <v>15</v>
+      </c>
+      <c r="U6" s="7">
+        <v>16</v>
+      </c>
+      <c r="V6" s="7">
+        <v>17</v>
+      </c>
+      <c r="W6" s="7">
+        <v>18</v>
+      </c>
+      <c r="X6" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="66">
+        <v>9</v>
+      </c>
+      <c r="C7" s="57">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16">
+        <v>11</v>
+      </c>
+      <c r="E7" s="16">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16">
+        <v>13</v>
+      </c>
+      <c r="G7" s="16">
+        <v>14</v>
+      </c>
+      <c r="H7" s="51">
+        <v>15</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="22">
+        <v>9</v>
+      </c>
+      <c r="K7" s="13">
+        <v>10</v>
+      </c>
+      <c r="L7" s="16">
+        <v>11</v>
+      </c>
+      <c r="M7" s="16">
+        <v>12</v>
+      </c>
+      <c r="N7" s="34">
+        <v>13</v>
+      </c>
+      <c r="O7" s="34">
+        <v>14</v>
+      </c>
+      <c r="P7" s="52">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="22">
+        <v>20</v>
+      </c>
+      <c r="S7" s="13">
+        <v>21</v>
+      </c>
+      <c r="T7" s="34">
+        <v>22</v>
+      </c>
+      <c r="U7" s="34">
+        <v>23</v>
+      </c>
+      <c r="V7" s="34">
+        <v>24</v>
+      </c>
+      <c r="W7" s="34">
+        <v>25</v>
+      </c>
+      <c r="X7" s="63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="22">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13">
+        <v>17</v>
+      </c>
+      <c r="D8" s="16">
+        <v>18</v>
+      </c>
+      <c r="E8" s="16">
+        <v>19</v>
+      </c>
+      <c r="F8" s="16">
+        <v>20</v>
+      </c>
+      <c r="G8" s="16">
+        <v>21</v>
+      </c>
+      <c r="H8" s="51">
+        <v>22</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="49">
+        <v>16</v>
+      </c>
+      <c r="K8" s="11">
+        <v>17</v>
+      </c>
+      <c r="L8" s="11">
+        <v>18</v>
+      </c>
+      <c r="M8" s="11">
+        <v>19</v>
+      </c>
+      <c r="N8" s="11">
+        <v>20</v>
+      </c>
+      <c r="O8" s="11">
+        <v>21</v>
+      </c>
+      <c r="P8" s="52">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="22">
+        <v>27</v>
+      </c>
+      <c r="S8" s="13">
+        <v>28</v>
+      </c>
+      <c r="T8" s="34">
+        <v>29</v>
+      </c>
+      <c r="U8" s="34">
+        <v>30</v>
+      </c>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="63"/>
+    </row>
+    <row r="9" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="22">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13">
+        <v>24</v>
+      </c>
+      <c r="D9" s="16">
+        <v>25</v>
+      </c>
+      <c r="E9" s="16">
+        <v>26</v>
+      </c>
+      <c r="F9" s="16">
+        <v>27</v>
+      </c>
+      <c r="G9" s="16">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="49">
+        <v>23</v>
+      </c>
+      <c r="K9" s="11">
+        <v>24</v>
+      </c>
+      <c r="L9" s="11">
+        <v>25</v>
+      </c>
+      <c r="M9" s="11">
+        <v>26</v>
+      </c>
+      <c r="N9" s="11">
+        <v>27</v>
+      </c>
+      <c r="O9" s="11">
+        <v>28</v>
+      </c>
+      <c r="P9" s="52">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="63"/>
+    </row>
+    <row r="10" spans="1:24" ht="72.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="J10" s="53">
+        <v>30</v>
+      </c>
+      <c r="K10" s="54">
+        <v>31</v>
+      </c>
+      <c r="L10" s="55">
+        <v>1</v>
+      </c>
+      <c r="M10" s="55">
+        <v>2</v>
+      </c>
+      <c r="N10" s="55">
+        <v>3</v>
+      </c>
+      <c r="O10" s="55">
+        <v>4</v>
+      </c>
+      <c r="P10" s="56">
+        <v>5</v>
+      </c>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="65"/>
+    </row>
+    <row r="11" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="45"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B15:P20"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="R3:X3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="11" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="19" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="107"/>
+    </row>
+    <row r="3" spans="1:24" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="99"/>
+    </row>
+    <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="100">
+        <v>6</v>
+      </c>
+      <c r="C5" s="101">
+        <v>7</v>
+      </c>
+      <c r="D5" s="34">
+        <v>8</v>
+      </c>
+      <c r="E5" s="34">
+        <v>9</v>
+      </c>
+      <c r="F5" s="34">
+        <v>10</v>
+      </c>
+      <c r="G5" s="34">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8">
+        <v>12</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="35">
+        <v>6</v>
+      </c>
+      <c r="K5" s="34">
+        <v>7</v>
+      </c>
+      <c r="L5" s="34">
+        <v>8</v>
+      </c>
+      <c r="M5" s="34">
+        <v>9</v>
+      </c>
+      <c r="N5" s="34">
+        <v>10</v>
+      </c>
+      <c r="O5" s="34">
+        <v>11</v>
+      </c>
+      <c r="P5" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="35">
+        <v>6</v>
+      </c>
+      <c r="S5" s="34">
+        <v>7</v>
+      </c>
+      <c r="T5" s="34">
+        <v>8</v>
+      </c>
+      <c r="U5" s="34">
+        <v>9</v>
+      </c>
+      <c r="V5" s="34">
+        <v>10</v>
+      </c>
+      <c r="W5" s="34">
+        <v>11</v>
+      </c>
+      <c r="X5" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="35">
+        <v>13</v>
+      </c>
+      <c r="C6" s="34">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8">
+        <v>19</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="35">
+        <v>13</v>
+      </c>
+      <c r="K6" s="34">
+        <v>14</v>
+      </c>
+      <c r="L6" s="34">
+        <v>15</v>
+      </c>
+      <c r="M6" s="7">
+        <v>16</v>
+      </c>
+      <c r="N6" s="7">
+        <v>17</v>
+      </c>
+      <c r="O6" s="7">
+        <v>18</v>
+      </c>
+      <c r="P6" s="8">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="35">
+        <v>13</v>
+      </c>
+      <c r="S6" s="34">
+        <v>14</v>
+      </c>
+      <c r="T6" s="7">
+        <v>15</v>
+      </c>
+      <c r="U6" s="7">
+        <v>16</v>
+      </c>
+      <c r="V6" s="7">
+        <v>17</v>
+      </c>
+      <c r="W6" s="7">
+        <v>18</v>
+      </c>
+      <c r="X6" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="35">
+        <v>20</v>
+      </c>
+      <c r="C7" s="34">
+        <v>21</v>
+      </c>
+      <c r="D7" s="34">
+        <v>22</v>
+      </c>
+      <c r="E7" s="34">
+        <v>23</v>
+      </c>
+      <c r="F7" s="34">
+        <v>24</v>
+      </c>
+      <c r="G7" s="34">
+        <v>25</v>
+      </c>
+      <c r="H7" s="63">
+        <v>26</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="35">
+        <v>20</v>
+      </c>
+      <c r="K7" s="34">
+        <v>21</v>
+      </c>
+      <c r="L7" s="34">
+        <v>22</v>
+      </c>
+      <c r="M7" s="34">
+        <v>23</v>
+      </c>
+      <c r="N7" s="34">
+        <v>24</v>
+      </c>
+      <c r="O7" s="34">
+        <v>25</v>
+      </c>
+      <c r="P7" s="63">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="35">
+        <v>20</v>
+      </c>
+      <c r="S7" s="34">
+        <v>21</v>
+      </c>
+      <c r="T7" s="34">
+        <v>22</v>
+      </c>
+      <c r="U7" s="34">
+        <v>23</v>
+      </c>
+      <c r="V7" s="34">
+        <v>24</v>
+      </c>
+      <c r="W7" s="34">
+        <v>25</v>
+      </c>
+      <c r="X7" s="63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="35">
+        <v>27</v>
+      </c>
+      <c r="C8" s="34">
+        <v>28</v>
+      </c>
+      <c r="D8" s="34">
+        <v>29</v>
+      </c>
+      <c r="E8" s="34">
+        <v>30</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="35">
+        <v>27</v>
+      </c>
+      <c r="K8" s="34">
+        <v>28</v>
+      </c>
+      <c r="L8" s="34">
+        <v>29</v>
+      </c>
+      <c r="M8" s="34">
+        <v>30</v>
+      </c>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="35">
+        <v>27</v>
+      </c>
+      <c r="S8" s="34">
+        <v>28</v>
+      </c>
+      <c r="T8" s="34">
+        <v>29</v>
+      </c>
+      <c r="U8" s="34">
+        <v>30</v>
+      </c>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="63"/>
+    </row>
+    <row r="9" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="63"/>
+    </row>
+    <row r="10" spans="1:24" ht="72.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="65"/>
+    </row>
+    <row r="11" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="45"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B15:P20"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="R3:X3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>